--- a/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.76837426451557</v>
+        <v>107.76837425327136</v>
       </c>
       <c r="C2">
-        <v>128.28566361863815</v>
+        <v>128.28566363088606</v>
       </c>
       <c r="D2">
-        <v>84.586885673680555</v>
+        <v>84.586885674053789</v>
       </c>
       <c r="E2">
-        <v>166.03153944608508</v>
+        <v>166.03153945747445</v>
       </c>
       <c r="F2">
-        <v>104.62772219151574</v>
+        <v>104.62772220323205</v>
       </c>
       <c r="G2">
-        <v>144.91000440759416</v>
+        <v>144.91000442255464</v>
       </c>
       <c r="H2">
-        <v>97.830828609697875</v>
+        <v>97.830828602673236</v>
       </c>
       <c r="I2">
-        <v>129.9393957773066</v>
+        <v>129.93939578926424</v>
       </c>
       <c r="J2">
-        <v>86.875354888113321</v>
+        <v>86.875354881235481</v>
       </c>
       <c r="K2">
-        <v>96.385188500119511</v>
+        <v>96.385188508955792</v>
       </c>
       <c r="L2">
-        <v>77.785190477661956</v>
+        <v>77.785190475590355</v>
       </c>
       <c r="M2">
-        <v>129.67138047837642</v>
+        <v>129.67138048564235</v>
       </c>
       <c r="N2">
-        <v>169.99634541498216</v>
+        <v>169.99634541439548</v>
       </c>
       <c r="O2">
-        <v>138.60883575148404</v>
+        <v>138.60883575451572</v>
       </c>
       <c r="P2">
-        <v>170.46396306452613</v>
+        <v>170.46396309083195</v>
       </c>
       <c r="Q2">
-        <v>157.58302031214296</v>
+        <v>157.58302033893656</v>
       </c>
       <c r="R2">
-        <v>179.41278904725044</v>
+        <v>179.41278906965096</v>
       </c>
       <c r="S2">
-        <v>133.50922403472052</v>
+        <v>133.50922400589656</v>
       </c>
       <c r="T2">
-        <v>137.95574041533064</v>
+        <v>137.95574041942723</v>
       </c>
       <c r="U2">
-        <v>112.4493372723247</v>
+        <v>112.44933727833359</v>
       </c>
       <c r="V2">
-        <v>137.69065068057193</v>
+        <v>137.69065067713248</v>
       </c>
       <c r="W2">
-        <v>194.11316373725293</v>
+        <v>194.11316374092061</v>
       </c>
       <c r="X2">
-        <v>130.58210893576629</v>
+        <v>130.58210895923361</v>
       </c>
       <c r="Y2">
-        <v>141.38257639188396</v>
+        <v>141.38257638316136</v>
       </c>
       <c r="Z2">
-        <v>90.484284345810565</v>
+        <v>90.484284344147909</v>
       </c>
       <c r="AA2">
-        <v>121.93430013751978</v>
+        <v>121.9343001436267</v>
       </c>
       <c r="AB2">
-        <v>121.79239596014088</v>
+        <v>121.79239597916255</v>
       </c>
       <c r="AC2">
-        <v>92.85534499680341</v>
+        <v>92.855345008567511</v>
       </c>
       <c r="AD2">
-        <v>141.91375639286352</v>
+        <v>141.91375641704863</v>
       </c>
       <c r="AE2">
-        <v>108.3131763230065</v>
+        <v>108.31317632427431</v>
       </c>
       <c r="AF2">
-        <v>134.45331686336664</v>
+        <v>134.45331689043979</v>
       </c>
       <c r="AG2">
-        <v>98.169156822014315</v>
+        <v>98.169156823095591</v>
       </c>
       <c r="AH2">
-        <v>124.15883964866239</v>
+        <v>124.15883968379146</v>
       </c>
       <c r="AI2">
-        <v>107.62546485233432</v>
+        <v>107.62546486154967</v>
       </c>
       <c r="AJ2">
-        <v>99.827373813682996</v>
+        <v>99.827373835359452</v>
       </c>
       <c r="AK2">
-        <v>72.117375407300841</v>
+        <v>72.117375411577015</v>
       </c>
       <c r="AL2">
-        <v>120.65186790193115</v>
+        <v>120.65186790691479</v>
       </c>
       <c r="AM2">
-        <v>170.82698738777668</v>
+        <v>170.82698739089955</v>
       </c>
       <c r="AN2">
-        <v>135.53889454714391</v>
+        <v>135.53889455340507</v>
       </c>
       <c r="AO2">
-        <v>167.00942149149137</v>
+        <v>167.00942153296052</v>
       </c>
       <c r="AP2">
-        <v>170.29988870400786</v>
+        <v>170.29988871473881</v>
       </c>
       <c r="AQ2">
-        <v>179.63773215272153</v>
+        <v>179.63773216700383</v>
       </c>
       <c r="AR2">
-        <v>130.83547009918931</v>
+        <v>130.83547011408095</v>
       </c>
       <c r="AS2">
-        <v>139.8508404633848</v>
+        <v>139.85084048114075</v>
       </c>
       <c r="AT2">
-        <v>113.11364974337067</v>
+        <v>113.11364976119076</v>
       </c>
       <c r="AU2">
-        <v>144.8201147055741</v>
+        <v>144.82011472433987</v>
       </c>
       <c r="AV2">
-        <v>179.47759231833919</v>
+        <v>179.47759232207898</v>
       </c>
       <c r="AW2">
-        <v>125.67741475238012</v>
+        <v>125.67741477534268</v>
       </c>
       <c r="AX2">
-        <v>151.29356852412815</v>
+        <v>151.29356853804143</v>
       </c>
       <c r="AY2">
-        <v>119.61794433146505</v>
+        <v>119.61794433926896</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.58879448513073</v>
+        <v>123.58879448332954</v>
       </c>
       <c r="C3">
-        <v>105.67521998941267</v>
+        <v>105.67521998276027</v>
       </c>
       <c r="D3">
-        <v>87.283715260896088</v>
+        <v>87.283715249121769</v>
       </c>
       <c r="E3">
-        <v>156.60916240783544</v>
+        <v>156.60916245713048</v>
       </c>
       <c r="F3">
-        <v>128.82510342657937</v>
+        <v>128.82510343918381</v>
       </c>
       <c r="G3">
-        <v>134.80196892166265</v>
+        <v>134.80196891092106</v>
       </c>
       <c r="H3">
-        <v>95.267406061678116</v>
+        <v>95.267406068186091</v>
       </c>
       <c r="I3">
-        <v>135.19357631629629</v>
+        <v>135.1935763320879</v>
       </c>
       <c r="J3">
-        <v>85.454190027402234</v>
+        <v>85.45419003764772</v>
       </c>
       <c r="K3">
-        <v>113.006401494974</v>
+        <v>113.00640148592288</v>
       </c>
       <c r="L3">
-        <v>108.56318451896784</v>
+        <v>108.56318451318209</v>
       </c>
       <c r="M3">
-        <v>138.64897282354298</v>
+        <v>138.64880089993051</v>
       </c>
       <c r="N3">
-        <v>153.76991952456993</v>
+        <v>153.76991952659552</v>
       </c>
       <c r="O3">
-        <v>129.21433871116375</v>
+        <v>129.21433872432971</v>
       </c>
       <c r="P3">
-        <v>148.52037250230217</v>
+        <v>148.52037250957105</v>
       </c>
       <c r="Q3">
-        <v>149.07501428142638</v>
+        <v>149.07501429808585</v>
       </c>
       <c r="R3">
-        <v>179.71102907478559</v>
+        <v>179.71102911390062</v>
       </c>
       <c r="S3">
-        <v>131.76373008946808</v>
+        <v>131.76373009870693</v>
       </c>
       <c r="T3">
-        <v>144.23219469992114</v>
+        <v>144.23219469968677</v>
       </c>
       <c r="U3">
-        <v>94.981090209414035</v>
+        <v>94.981090198969611</v>
       </c>
       <c r="V3">
-        <v>163.97740815246271</v>
+        <v>163.9774081542337</v>
       </c>
       <c r="W3">
-        <v>127.43203137979846</v>
+        <v>127.43203139974968</v>
       </c>
       <c r="X3">
-        <v>139.5518423641264</v>
+        <v>139.55184238051061</v>
       </c>
       <c r="Y3">
-        <v>137.43798592309736</v>
+        <v>137.43798593275793</v>
       </c>
       <c r="Z3">
-        <v>126.34847223647961</v>
+        <v>126.34847224762498</v>
       </c>
       <c r="AA3">
-        <v>121.65702100744808</v>
+        <v>121.65702102615566</v>
       </c>
       <c r="AB3">
-        <v>105.33023254368126</v>
+        <v>105.33023253542149</v>
       </c>
       <c r="AC3">
-        <v>85.830210609717</v>
+        <v>85.830210610421318</v>
       </c>
       <c r="AD3">
-        <v>152.11740101324858</v>
+        <v>152.11740102653789</v>
       </c>
       <c r="AE3">
-        <v>135.0130048234127</v>
+        <v>135.01300484155274</v>
       </c>
       <c r="AF3">
-        <v>130.15106362313824</v>
+        <v>130.15106363104911</v>
       </c>
       <c r="AG3">
-        <v>93.993979338541308</v>
+        <v>93.993979334638169</v>
       </c>
       <c r="AH3">
-        <v>140.94977225303762</v>
+        <v>140.9497722663701</v>
       </c>
       <c r="AI3">
-        <v>80.081911257351464</v>
+        <v>80.081911246689373</v>
       </c>
       <c r="AJ3">
-        <v>107.80252259755186</v>
+        <v>107.80252257705095</v>
       </c>
       <c r="AK3">
-        <v>82.258410444798443</v>
+        <v>82.258410442740143</v>
       </c>
       <c r="AL3">
-        <v>139.09295875520513</v>
+        <v>139.0929587734112</v>
       </c>
       <c r="AM3">
-        <v>159.27475563974301</v>
+        <v>159.27475562953444</v>
       </c>
       <c r="AN3">
-        <v>132.60611171396235</v>
+        <v>132.60611173301078</v>
       </c>
       <c r="AO3">
-        <v>195.57568625430434</v>
+        <v>195.57568624566503</v>
       </c>
       <c r="AP3">
-        <v>147.29130673642982</v>
+        <v>147.29130674677191</v>
       </c>
       <c r="AQ3">
-        <v>176.22138658913303</v>
+        <v>176.22138662640015</v>
       </c>
       <c r="AR3">
-        <v>124.96608638345248</v>
+        <v>124.96608639062552</v>
       </c>
       <c r="AS3">
-        <v>139.48521590090093</v>
+        <v>139.48521591502981</v>
       </c>
       <c r="AT3">
-        <v>97.336659650787794</v>
+        <v>97.336659673483766</v>
       </c>
       <c r="AU3">
-        <v>163.40712402888886</v>
+        <v>163.4071240201956</v>
       </c>
       <c r="AV3">
-        <v>125.72104124644424</v>
+        <v>125.72104124898713</v>
       </c>
       <c r="AW3">
-        <v>131.03790799103604</v>
+        <v>131.03790800192746</v>
       </c>
       <c r="AX3">
-        <v>112.6334042244616</v>
+        <v>112.63340422857578</v>
       </c>
       <c r="AY3">
-        <v>131.3768322060892</v>
+        <v>131.37683221499506</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>107.76837425327136</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>128.28566363088606</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>84.586885674053789</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>166.03153945747445</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>104.62772220323205</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>144.91000442255464</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>97.830828602673236</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>129.93939578926424</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>86.875354881235481</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>96.385188508955792</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>77.785190475590355</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>129.67138048564235</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>169.99634541439548</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>138.60883575451572</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>170.46396309083195</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>157.58302033893656</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>179.41278906965096</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>133.50922400589656</v>
@@ -588,55 +477,55 @@
         <v>90.484284344147909</v>
       </c>
       <c r="AA2">
-        <v>121.9343001436267</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>121.79239597916255</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>92.855345008567511</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>141.91375641704863</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>108.31317632427431</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>134.45331689043979</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>98.169156823095591</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>124.15883968379146</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>107.62546486154967</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>99.827373835359452</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>72.117375411577015</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>120.65186790691479</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>170.82698739089955</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>135.53889455340507</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>167.00942153296052</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>170.29988871473881</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>179.63773216700383</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>130.83547011408095</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>123.58879448332954</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>105.67521998276027</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>87.283715249121769</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>156.60916245713048</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>128.82510343918381</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>134.80196891092106</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>95.267406068186091</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>135.1935763320879</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>85.45419003764772</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>113.00640148592288</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>108.56318451318209</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>138.64880089993051</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>153.76991952659552</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>129.21433872432971</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>148.52037250957105</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>149.07501429808585</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>179.71102911390062</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>131.76373009870693</v>
@@ -743,55 +629,55 @@
         <v>126.34847224762498</v>
       </c>
       <c r="AA3">
-        <v>121.65702102615566</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>105.33023253542149</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>85.830210610421318</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>152.11740102653789</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>135.01300484155274</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>130.15106363104911</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>93.993979334638169</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>140.9497722663701</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>80.081911246689373</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>107.80252257705095</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>82.258410442740143</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>139.0929587734112</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>159.27475562953444</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>132.60611173301078</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>195.57568624566503</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>147.29130674677191</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>176.22138662640015</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>124.96608639062552</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.76837426451557</v>
+        <v>138.60883575451572</v>
       </c>
       <c r="C2">
-        <v>128.28566361863815</v>
+        <v>179.41278906965096</v>
       </c>
       <c r="D2">
-        <v>84.586885673680555</v>
+        <v>135.53889455340507</v>
       </c>
       <c r="E2">
-        <v>166.03153944608508</v>
+        <v>179.63773216700383</v>
       </c>
       <c r="F2">
         <v>104.62772219151574</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.58879448513073</v>
+        <v>129.21433872432971</v>
       </c>
       <c r="C3">
-        <v>105.67521998941267</v>
+        <v>179.71102911390062</v>
       </c>
       <c r="D3">
-        <v>87.283715260896088</v>
+        <v>132.60611173301078</v>
       </c>
       <c r="E3">
-        <v>156.60916240783544</v>
+        <v>176.51768538339959</v>
       </c>
       <c r="F3">
         <v>128.82510342657937</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.76837426451557</v>
+        <v>169.99634541439548</v>
       </c>
       <c r="C2">
-        <v>128.28566361863815</v>
+        <v>138.60883575451572</v>
       </c>
       <c r="D2">
-        <v>84.586885673680555</v>
+        <v>170.82698739089955</v>
       </c>
       <c r="E2">
-        <v>166.03153944608508</v>
+        <v>135.53889455340507</v>
       </c>
       <c r="F2">
         <v>104.62772219151574</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>123.58879448513073</v>
+        <v>153.76991952659552</v>
       </c>
       <c r="C3">
-        <v>105.67521998941267</v>
+        <v>129.21433872432971</v>
       </c>
       <c r="D3">
-        <v>87.283715260896088</v>
+        <v>159.27475562953444</v>
       </c>
       <c r="E3">
-        <v>156.60916240783544</v>
+        <v>132.60611173301078</v>
       </c>
       <c r="F3">
         <v>128.82510342657937</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>107.76837425327136</v>
+      </c>
+      <c r="C2">
+        <v>128.28566363088606</v>
+      </c>
+      <c r="D2">
+        <v>84.586885674053789</v>
+      </c>
+      <c r="E2">
+        <v>166.03153945747445</v>
+      </c>
+      <c r="F2">
+        <v>104.62772220323205</v>
+      </c>
+      <c r="G2">
+        <v>144.91000442255464</v>
+      </c>
+      <c r="H2">
+        <v>97.830828602673236</v>
+      </c>
+      <c r="I2">
+        <v>129.93939578926424</v>
+      </c>
+      <c r="J2">
+        <v>86.875354881235481</v>
+      </c>
+      <c r="K2">
+        <v>96.385188508955792</v>
+      </c>
+      <c r="L2">
+        <v>77.785190475590355</v>
+      </c>
+      <c r="M2">
+        <v>129.67138048564235</v>
+      </c>
+      <c r="N2">
         <v>169.99634541439548</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>138.60883575451572</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>170.46396309083195</v>
+      </c>
+      <c r="Q2">
+        <v>157.58302033893656</v>
+      </c>
+      <c r="R2">
+        <v>179.41278906965096</v>
+      </c>
+      <c r="S2">
+        <v>133.50922400589656</v>
+      </c>
+      <c r="T2">
+        <v>137.95574041942723</v>
+      </c>
+      <c r="U2">
+        <v>112.44933727833359</v>
+      </c>
+      <c r="V2">
+        <v>137.69065067713248</v>
+      </c>
+      <c r="W2">
+        <v>194.11316374092061</v>
+      </c>
+      <c r="X2">
+        <v>130.58210895923361</v>
+      </c>
+      <c r="Y2">
+        <v>141.38257638316136</v>
+      </c>
+      <c r="Z2">
+        <v>90.484284344147909</v>
+      </c>
+      <c r="AA2">
+        <v>121.9343001436267</v>
+      </c>
+      <c r="AB2">
+        <v>121.79239597916255</v>
+      </c>
+      <c r="AC2">
+        <v>92.855345008567511</v>
+      </c>
+      <c r="AD2">
+        <v>141.91375641704863</v>
+      </c>
+      <c r="AE2">
+        <v>108.31317632427431</v>
+      </c>
+      <c r="AF2">
+        <v>134.45331689043979</v>
+      </c>
+      <c r="AG2">
+        <v>98.169156823095591</v>
+      </c>
+      <c r="AH2">
+        <v>124.15883968379146</v>
+      </c>
+      <c r="AI2">
+        <v>107.62546486154967</v>
+      </c>
+      <c r="AJ2">
+        <v>99.827373835359452</v>
+      </c>
+      <c r="AK2">
+        <v>72.117375411577015</v>
+      </c>
+      <c r="AL2">
+        <v>120.65186790691479</v>
+      </c>
+      <c r="AM2">
         <v>170.82698739089955</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>135.53889455340507</v>
       </c>
-      <c r="F2">
-        <v>104.62772219151574</v>
-      </c>
-      <c r="G2">
-        <v>144.91000440759416</v>
-      </c>
-      <c r="H2">
-        <v>97.830828609697875</v>
-      </c>
-      <c r="I2">
-        <v>129.9393957773066</v>
-      </c>
-      <c r="J2">
-        <v>86.875354888113321</v>
-      </c>
-      <c r="K2">
-        <v>96.385188500119511</v>
-      </c>
-      <c r="L2">
-        <v>77.785190477661956</v>
-      </c>
-      <c r="M2">
-        <v>129.67138047837642</v>
-      </c>
-      <c r="N2">
-        <v>169.99634541498216</v>
-      </c>
-      <c r="O2">
-        <v>138.60883575148404</v>
-      </c>
-      <c r="P2">
-        <v>170.46396306452613</v>
-      </c>
-      <c r="Q2">
-        <v>157.58302031214296</v>
-      </c>
-      <c r="R2">
-        <v>179.41278904725044</v>
-      </c>
-      <c r="S2">
-        <v>133.50922403472052</v>
-      </c>
-      <c r="T2">
-        <v>137.95574041533064</v>
-      </c>
-      <c r="U2">
-        <v>112.4493372723247</v>
-      </c>
-      <c r="V2">
-        <v>137.69065068057193</v>
-      </c>
-      <c r="W2">
-        <v>194.11316373725293</v>
-      </c>
-      <c r="X2">
-        <v>130.58210893576629</v>
-      </c>
-      <c r="Y2">
-        <v>141.38257639188396</v>
-      </c>
-      <c r="Z2">
-        <v>90.484284345810565</v>
-      </c>
-      <c r="AA2">
-        <v>121.93430013751978</v>
-      </c>
-      <c r="AB2">
-        <v>121.79239596014088</v>
-      </c>
-      <c r="AC2">
-        <v>92.85534499680341</v>
-      </c>
-      <c r="AD2">
-        <v>141.91375639286352</v>
-      </c>
-      <c r="AE2">
-        <v>108.3131763230065</v>
-      </c>
-      <c r="AF2">
-        <v>134.45331686336664</v>
-      </c>
-      <c r="AG2">
-        <v>98.169156822014315</v>
-      </c>
-      <c r="AH2">
-        <v>124.15883964866239</v>
-      </c>
-      <c r="AI2">
-        <v>107.62546485233432</v>
-      </c>
-      <c r="AJ2">
-        <v>99.827373813682996</v>
-      </c>
-      <c r="AK2">
-        <v>72.117375407300841</v>
-      </c>
-      <c r="AL2">
-        <v>120.65186790193115</v>
-      </c>
-      <c r="AM2">
-        <v>170.82698738777668</v>
-      </c>
-      <c r="AN2">
-        <v>135.53889454714391</v>
-      </c>
       <c r="AO2">
-        <v>167.00942149149137</v>
+        <v>167.00942153296052</v>
       </c>
       <c r="AP2">
-        <v>169.904570756091</v>
+        <v>169.90457077340818</v>
       </c>
       <c r="AQ2">
-        <v>179.63773215272153</v>
+        <v>179.63773216700383</v>
       </c>
       <c r="AR2">
-        <v>130.83547009918931</v>
+        <v>130.83547011408095</v>
       </c>
       <c r="AS2">
-        <v>139.8508404633848</v>
+        <v>139.85084048114075</v>
       </c>
       <c r="AT2">
-        <v>113.11364974337067</v>
+        <v>113.11364976119076</v>
       </c>
       <c r="AU2">
-        <v>144.8201147055741</v>
+        <v>144.82011472433987</v>
       </c>
       <c r="AV2">
-        <v>179.47759231833919</v>
+        <v>179.47759232207898</v>
       </c>
       <c r="AW2">
-        <v>125.67741475238012</v>
+        <v>125.67741477534268</v>
       </c>
       <c r="AX2">
-        <v>151.29356852412815</v>
+        <v>151.29356853804143</v>
       </c>
       <c r="AY2">
-        <v>119.61794433146505</v>
+        <v>119.61794433926896</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>123.58879448332954</v>
+      </c>
+      <c r="C3">
+        <v>105.67521998276027</v>
+      </c>
+      <c r="D3">
+        <v>87.283715249121769</v>
+      </c>
+      <c r="E3">
+        <v>156.60916245713048</v>
+      </c>
+      <c r="F3">
+        <v>128.82510343918381</v>
+      </c>
+      <c r="G3">
+        <v>134.80196891092106</v>
+      </c>
+      <c r="H3">
+        <v>95.267406068186091</v>
+      </c>
+      <c r="I3">
+        <v>135.1935763320879</v>
+      </c>
+      <c r="J3">
+        <v>85.45419003764772</v>
+      </c>
+      <c r="K3">
+        <v>113.00640148592288</v>
+      </c>
+      <c r="L3">
+        <v>108.56318451318209</v>
+      </c>
+      <c r="M3">
+        <v>138.64880089993051</v>
+      </c>
+      <c r="N3">
         <v>153.76991952659552</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>129.21433872432971</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>148.52037250957105</v>
+      </c>
+      <c r="Q3">
+        <v>149.07501429808585</v>
+      </c>
+      <c r="R3">
+        <v>179.71102911390062</v>
+      </c>
+      <c r="S3">
+        <v>131.76373009870693</v>
+      </c>
+      <c r="T3">
+        <v>144.23219469968677</v>
+      </c>
+      <c r="U3">
+        <v>94.981090198969611</v>
+      </c>
+      <c r="V3">
+        <v>163.9774081542337</v>
+      </c>
+      <c r="W3">
+        <v>127.4272361534132</v>
+      </c>
+      <c r="X3">
+        <v>139.55184238051061</v>
+      </c>
+      <c r="Y3">
+        <v>137.43798593275793</v>
+      </c>
+      <c r="Z3">
+        <v>126.34847224762498</v>
+      </c>
+      <c r="AA3">
+        <v>121.65702102615566</v>
+      </c>
+      <c r="AB3">
+        <v>105.33023253542149</v>
+      </c>
+      <c r="AC3">
+        <v>85.830210610421318</v>
+      </c>
+      <c r="AD3">
+        <v>152.11740102653789</v>
+      </c>
+      <c r="AE3">
+        <v>135.01300484155274</v>
+      </c>
+      <c r="AF3">
+        <v>130.15106363104911</v>
+      </c>
+      <c r="AG3">
+        <v>93.993979334638169</v>
+      </c>
+      <c r="AH3">
+        <v>141.03856294719259</v>
+      </c>
+      <c r="AI3">
+        <v>80.081911246689373</v>
+      </c>
+      <c r="AJ3">
+        <v>107.80252257705095</v>
+      </c>
+      <c r="AK3">
+        <v>82.258410442740143</v>
+      </c>
+      <c r="AL3">
+        <v>139.0929587734112</v>
+      </c>
+      <c r="AM3">
         <v>159.27475562953444</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>132.60611173301078</v>
       </c>
-      <c r="F3">
-        <v>128.82510342657937</v>
-      </c>
-      <c r="G3">
-        <v>134.80196892166265</v>
-      </c>
-      <c r="H3">
-        <v>95.267406061678116</v>
-      </c>
-      <c r="I3">
-        <v>135.19357631629629</v>
-      </c>
-      <c r="J3">
-        <v>85.454190027402234</v>
-      </c>
-      <c r="K3">
-        <v>113.006401494974</v>
-      </c>
-      <c r="L3">
-        <v>108.56318451896784</v>
-      </c>
-      <c r="M3">
-        <v>138.64897282354298</v>
-      </c>
-      <c r="N3">
-        <v>153.76991952456993</v>
-      </c>
-      <c r="O3">
-        <v>129.21433871116375</v>
-      </c>
-      <c r="P3">
-        <v>148.52037250230217</v>
-      </c>
-      <c r="Q3">
-        <v>149.07501428142638</v>
-      </c>
-      <c r="R3">
-        <v>179.71102907478559</v>
-      </c>
-      <c r="S3">
-        <v>131.76373008946808</v>
-      </c>
-      <c r="T3">
-        <v>144.23219469992114</v>
-      </c>
-      <c r="U3">
-        <v>94.981090209414035</v>
-      </c>
-      <c r="V3">
-        <v>163.97740815246271</v>
-      </c>
-      <c r="W3">
-        <v>127.42723614017949</v>
-      </c>
-      <c r="X3">
-        <v>139.5518423641264</v>
-      </c>
-      <c r="Y3">
-        <v>137.43798592309736</v>
-      </c>
-      <c r="Z3">
-        <v>126.34847223647961</v>
-      </c>
-      <c r="AA3">
-        <v>121.65702100744808</v>
-      </c>
-      <c r="AB3">
-        <v>105.33023254368126</v>
-      </c>
-      <c r="AC3">
-        <v>85.830210609717</v>
-      </c>
-      <c r="AD3">
-        <v>152.11740101324858</v>
-      </c>
-      <c r="AE3">
-        <v>135.0130048234127</v>
-      </c>
-      <c r="AF3">
-        <v>130.15106362313824</v>
-      </c>
-      <c r="AG3">
-        <v>93.993979338541308</v>
-      </c>
-      <c r="AH3">
-        <v>141.03856292779301</v>
-      </c>
-      <c r="AI3">
-        <v>80.081911257351464</v>
-      </c>
-      <c r="AJ3">
-        <v>107.80252259755186</v>
-      </c>
-      <c r="AK3">
-        <v>82.258410444798443</v>
-      </c>
-      <c r="AL3">
-        <v>139.09295875520513</v>
-      </c>
-      <c r="AM3">
-        <v>159.27475563974301</v>
-      </c>
-      <c r="AN3">
-        <v>132.60611171396235</v>
-      </c>
       <c r="AO3">
-        <v>195.57568625430434</v>
+        <v>195.57568624566503</v>
       </c>
       <c r="AP3">
-        <v>147.29130673642982</v>
+        <v>147.29130674677191</v>
       </c>
       <c r="AQ3">
-        <v>176.51768534520841</v>
+        <v>176.51768538339959</v>
       </c>
       <c r="AR3">
-        <v>124.96608638345248</v>
+        <v>124.96608639062552</v>
       </c>
       <c r="AS3">
-        <v>139.48521590090093</v>
+        <v>139.48521591502981</v>
       </c>
       <c r="AT3">
-        <v>97.336659650787794</v>
+        <v>97.336659673483766</v>
       </c>
       <c r="AU3">
-        <v>163.40712402888886</v>
+        <v>163.4071240201956</v>
       </c>
       <c r="AV3">
-        <v>125.72104124644424</v>
+        <v>125.72104124898713</v>
       </c>
       <c r="AW3">
-        <v>131.03790799103604</v>
+        <v>131.03790800192746</v>
       </c>
       <c r="AX3">
-        <v>112.6334042244616</v>
+        <v>112.63340422857578</v>
       </c>
       <c r="AY3">
-        <v>131.3768322060892</v>
+        <v>131.37683221499506</v>
       </c>
     </row>
   </sheetData>
